--- a/storage/trf.xlsx
+++ b/storage/trf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Sites/Commercial/xmail/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BAD33B-65ED-E44C-8212-C8F707551A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E2A38-61E5-CC4B-9A8A-8AF26B530A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
     <t xml:space="preserve"> 250;499</t>
   </si>
   <si>
-    <t>1.01;0</t>
+    <t>1;0</t>
   </si>
 </sst>
 </file>
@@ -5987,6 +5987,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -5999,11 +6004,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:CW1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D106" sqref="D106:J123"/>

--- a/storage/trf.xlsx
+++ b/storage/trf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Sites/Commercial/xmail/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E2A38-61E5-CC4B-9A8A-8AF26B530A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B2FD8-E05B-774C-BD80-910E3065E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45980" yWindow="-6620" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="195">
   <si>
     <t>Общий фон</t>
   </si>
@@ -597,9 +597,6 @@
     <t>0.25;0.49</t>
   </si>
   <si>
-    <t>до 25 кг</t>
-  </si>
-  <si>
     <t>+кг</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
     <t>500 кг</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0;49</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 50;249</t>
   </si>
   <si>
@@ -625,6 +619,21 @@
   </si>
   <si>
     <t>1;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0;24.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25;49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + кг</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -955,11 +964,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,6 +1219,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1416,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0D3849-B444-9A43-ABED-5D2126DEBF7D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1442,7 +1468,7 @@
         <v>180</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>147</v>
@@ -5987,11 +6013,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -6004,6 +6025,11 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6011,10 +6037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DA7CDE-5F16-D44F-A24F-BD8ACA9ADF40}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6022,55 +6048,67 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="98" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="94"/>
+        <v>190</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>192</v>
+      </c>
       <c r="F1" s="99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G1" s="94"/>
       <c r="H1" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I1" s="94"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="J1" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="96"/>
       <c r="B2" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="D2" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="G2" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="87" t="s">
+      <c r="I2" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="K2" s="88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="82">
         <v>1</v>
       </c>
@@ -6078,28 +6116,34 @@
         <v>720</v>
       </c>
       <c r="C3" s="89">
+        <v>0</v>
+      </c>
+      <c r="D3" s="83">
+        <v>720</v>
+      </c>
+      <c r="E3" s="89">
         <v>18.8</v>
       </c>
-      <c r="D3" s="83">
+      <c r="F3" s="83">
         <v>1190</v>
       </c>
-      <c r="E3" s="89">
+      <c r="G3" s="89">
         <v>20.55</v>
       </c>
-      <c r="F3" s="83">
+      <c r="H3" s="83">
         <v>5300</v>
       </c>
-      <c r="G3" s="89">
+      <c r="I3" s="89">
         <v>19.68</v>
       </c>
-      <c r="H3" s="83">
+      <c r="J3" s="83">
         <v>10220</v>
       </c>
-      <c r="I3" s="89">
+      <c r="K3" s="89">
         <v>18.695999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -6107,28 +6151,34 @@
         <v>775</v>
       </c>
       <c r="C4" s="89">
+        <v>0</v>
+      </c>
+      <c r="D4" s="83">
+        <v>775</v>
+      </c>
+      <c r="E4" s="89">
         <v>21.8</v>
       </c>
-      <c r="D4" s="83">
+      <c r="F4" s="83">
         <v>1320</v>
       </c>
-      <c r="E4" s="89">
+      <c r="G4" s="89">
         <v>21.234999999999999</v>
       </c>
-      <c r="F4" s="83">
+      <c r="H4" s="83">
         <v>5420</v>
       </c>
-      <c r="G4" s="89">
+      <c r="I4" s="89">
         <v>23.12</v>
       </c>
-      <c r="H4" s="83">
+      <c r="J4" s="83">
         <v>11200</v>
       </c>
-      <c r="I4" s="89">
+      <c r="K4" s="89">
         <v>21.963999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -6136,28 +6186,34 @@
         <v>1550</v>
       </c>
       <c r="C5" s="89">
+        <v>0</v>
+      </c>
+      <c r="D5" s="83">
+        <v>1550</v>
+      </c>
+      <c r="E5" s="89">
         <v>18.273999999999997</v>
       </c>
-      <c r="D5" s="83">
+      <c r="F5" s="83">
         <v>2006.85</v>
       </c>
-      <c r="E5" s="89">
+      <c r="G5" s="89">
         <v>30.204750000000004</v>
       </c>
-      <c r="F5" s="83">
+      <c r="H5" s="83">
         <v>8047.8</v>
       </c>
-      <c r="G5" s="89">
+      <c r="I5" s="89">
         <v>31.946399999999997</v>
       </c>
-      <c r="H5" s="83">
+      <c r="J5" s="83">
         <v>15900</v>
       </c>
-      <c r="I5" s="89">
+      <c r="K5" s="89">
         <v>30.349079999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="84">
         <v>4</v>
       </c>
@@ -6165,32 +6221,37 @@
         <v>1440</v>
       </c>
       <c r="C6" s="90">
-        <f>(D6-B6)/25</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="85">
+        <v>1440</v>
+      </c>
+      <c r="E6" s="90">
         <v>37.6</v>
       </c>
-      <c r="D6" s="85">
+      <c r="F6" s="85">
         <v>2380</v>
       </c>
-      <c r="E6" s="90">
-        <f t="shared" ref="E6:E10" si="0">(F6-D6)/200</f>
+      <c r="G6" s="90">
+        <f t="shared" ref="G6:G10" si="0">(H6-F6)/200</f>
         <v>41.1</v>
       </c>
-      <c r="F6" s="85">
+      <c r="H6" s="85">
         <v>10600</v>
       </c>
-      <c r="G6" s="90">
-        <f t="shared" ref="G6:G10" si="1">(H6-F6)/250</f>
+      <c r="I6" s="90">
+        <f t="shared" ref="I6:I10" si="1">(J6-H6)/250</f>
         <v>39.36</v>
       </c>
-      <c r="H6" s="85">
+      <c r="J6" s="85">
         <v>20440</v>
       </c>
-      <c r="I6" s="90">
-        <f t="shared" ref="I6:I10" si="2">H6/500</f>
+      <c r="K6" s="90">
+        <f t="shared" ref="K6:K10" si="2">J6/500</f>
         <v>40.880000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="84">
         <v>5</v>
       </c>
@@ -6198,32 +6259,37 @@
         <v>1495</v>
       </c>
       <c r="C7" s="90">
-        <f t="shared" ref="C7:C10" si="3">(D7-B7)/25</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="85">
+        <v>1495</v>
+      </c>
+      <c r="E7" s="90">
         <v>40.6</v>
       </c>
-      <c r="D7" s="85">
+      <c r="F7" s="85">
         <v>2510</v>
       </c>
-      <c r="E7" s="90">
+      <c r="G7" s="90">
         <f t="shared" si="0"/>
         <v>41.05</v>
       </c>
-      <c r="F7" s="85">
+      <c r="H7" s="85">
         <v>10720</v>
       </c>
-      <c r="G7" s="90">
+      <c r="I7" s="90">
         <f t="shared" si="1"/>
         <v>42.8</v>
       </c>
-      <c r="H7" s="85">
+      <c r="J7" s="85">
         <v>21420</v>
       </c>
-      <c r="I7" s="90">
+      <c r="K7" s="90">
         <f t="shared" si="2"/>
         <v>42.84</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="84">
         <v>6</v>
       </c>
@@ -6231,32 +6297,37 @@
         <v>1550</v>
       </c>
       <c r="C8" s="90">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="85">
+        <v>1550</v>
+      </c>
+      <c r="E8" s="90">
         <v>43.6</v>
       </c>
-      <c r="D8" s="85">
+      <c r="F8" s="85">
         <v>2640</v>
       </c>
-      <c r="E8" s="90">
+      <c r="G8" s="90">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="85">
+      <c r="H8" s="85">
         <v>10840</v>
       </c>
-      <c r="G8" s="90">
+      <c r="I8" s="90">
         <f t="shared" si="1"/>
         <v>46.24</v>
       </c>
-      <c r="H8" s="85">
+      <c r="J8" s="85">
         <v>22400</v>
       </c>
-      <c r="I8" s="90">
+      <c r="K8" s="90">
         <f t="shared" si="2"/>
         <v>44.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="84">
         <v>7</v>
       </c>
@@ -6264,32 +6335,37 @@
         <v>2270</v>
       </c>
       <c r="C9" s="90">
-        <f t="shared" si="3"/>
-        <v>37.073999999999998</v>
+        <v>0</v>
       </c>
       <c r="D9" s="85">
+        <v>2270</v>
+      </c>
+      <c r="E9" s="90">
+        <v>37.07</v>
+      </c>
+      <c r="F9" s="85">
         <v>3196.85</v>
       </c>
-      <c r="E9" s="90">
+      <c r="G9" s="90">
         <f t="shared" si="0"/>
         <v>50.754749999999994</v>
       </c>
-      <c r="F9" s="85">
+      <c r="H9" s="85">
         <v>13347.8</v>
       </c>
-      <c r="G9" s="90">
+      <c r="I9" s="90">
         <f t="shared" si="1"/>
         <v>51.088800000000006</v>
       </c>
-      <c r="H9" s="85">
+      <c r="J9" s="85">
         <v>26120</v>
       </c>
-      <c r="I9" s="90">
+      <c r="K9" s="90">
         <f t="shared" si="2"/>
         <v>52.24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="84">
         <v>8</v>
       </c>
@@ -6297,27 +6373,32 @@
         <v>2325</v>
       </c>
       <c r="C10" s="90">
-        <f t="shared" si="3"/>
-        <v>40.073999999999998</v>
+        <v>0</v>
       </c>
       <c r="D10" s="85">
+        <v>2325</v>
+      </c>
+      <c r="E10" s="90">
+        <v>40.07</v>
+      </c>
+      <c r="F10" s="85">
         <v>3326.85</v>
       </c>
-      <c r="E10" s="90">
+      <c r="G10" s="90">
         <f t="shared" si="0"/>
         <v>50.704749999999997</v>
       </c>
-      <c r="F10" s="85">
+      <c r="H10" s="85">
         <v>13467.8</v>
       </c>
-      <c r="G10" s="90">
+      <c r="I10" s="90">
         <f t="shared" si="1"/>
         <v>54.528800000000004</v>
       </c>
-      <c r="H10" s="85">
+      <c r="J10" s="85">
         <v>27100</v>
       </c>
-      <c r="I10" s="90">
+      <c r="K10" s="90">
         <f t="shared" si="2"/>
         <v>54.2</v>
       </c>
@@ -6326,9 +6407,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/trf.xlsx
+++ b/storage/trf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a123/Sites/Commercial/xmail/storage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B2FD8-E05B-774C-BD80-910E3065E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FEDD6D-7EA5-AC43-9EC9-51E497AB9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45980" yWindow="-6620" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -588,15 +588,6 @@
     <t>2-6</t>
   </si>
   <si>
-    <t>0;0.24</t>
-  </si>
-  <si>
-    <t>0.5;1</t>
-  </si>
-  <si>
-    <t>0.25;0.49</t>
-  </si>
-  <si>
     <t>+кг</t>
   </si>
   <si>
@@ -634,6 +625,15 @@
   </si>
   <si>
     <t xml:space="preserve"> + кг</t>
+  </si>
+  <si>
+    <t>0;0.25</t>
+  </si>
+  <si>
+    <t>0.251;0.50</t>
+  </si>
+  <si>
+    <t>0.51;1</t>
   </si>
 </sst>
 </file>
@@ -1195,6 +1195,9 @@
     </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,13 +1221,10 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,14 +1442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0D3849-B444-9A43-ABED-5D2126DEBF7D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>146</v>
       </c>
       <c r="B1" s="31"/>
@@ -1457,18 +1457,18 @@
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="33" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>147</v>
@@ -4226,76 +4226,76 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="93" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="93" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="93" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="93" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="97" t="s">
+      <c r="K1" s="95"/>
+      <c r="L1" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="93" t="s">
+      <c r="M1" s="95"/>
+      <c r="N1" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="93" t="s">
+      <c r="O1" s="95"/>
+      <c r="P1" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="93" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="93" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="93" t="s">
+      <c r="U1" s="95"/>
+      <c r="V1" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="93" t="s">
+      <c r="W1" s="95"/>
+      <c r="X1" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="93" t="s">
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="93" t="s">
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="93" t="s">
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="93" t="s">
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="94"/>
+      <c r="AG1" s="95"/>
     </row>
     <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="73" t="s">
         <v>161</v>
       </c>
@@ -6013,6 +6013,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -6025,11 +6030,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6039,7 +6039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DA7CDE-5F16-D44F-A24F-BD8ACA9ADF40}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6049,63 +6049,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="H1" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="87" t="s">
+      <c r="E2" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="F2" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>185</v>
-      </c>
       <c r="K2" s="88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -38022,7 +38022,7 @@
       <c r="AT105" s="30"/>
     </row>
     <row r="106" spans="1:101" ht="15" x14ac:dyDescent="0.2">
-      <c r="D106" s="91" t="s">
+      <c r="D106" s="92" t="s">
         <v>146</v>
       </c>
       <c r="E106" s="31"/>
@@ -38040,7 +38040,7 @@
       <c r="AT106" s="30"/>
     </row>
     <row r="107" spans="1:101" ht="48" x14ac:dyDescent="0.2">
-      <c r="D107" s="100"/>
+      <c r="D107" s="102"/>
       <c r="E107" s="33">
         <v>0.25</v>
       </c>
